--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="157">
   <si>
     <t>学号（id）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -637,6 +637,14 @@
   </si>
   <si>
     <t>要不要绩点学分呢?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tname</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -962,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1600,254 +1608,254 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="D43">
         <v>1</v>
-      </c>
-      <c r="G43" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>91</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>92</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>95</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>133</v>
-      </c>
-      <c r="B47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>2</v>
-      </c>
-      <c r="F47" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" t="s">
-        <v>14</v>
+      <c r="D46">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>3</v>
       </c>
       <c r="G48" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="F49">
+      <c r="E49">
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
       <c r="G50" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D51">
         <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>136</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>137</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>138</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>134</v>
-      </c>
-      <c r="B55" t="s">
-        <v>43</v>
-      </c>
-      <c r="C55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1</v>
-      </c>
-      <c r="E55" t="s">
-        <v>2</v>
-      </c>
-      <c r="F55" t="s">
-        <v>3</v>
-      </c>
-      <c r="G55" t="s">
-        <v>14</v>
+      <c r="D53">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="F57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C58" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
-      <c r="G58" t="s">
-        <v>109</v>
+      <c r="F58">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C59" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D59">
         <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C60" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -1855,10 +1863,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C61" t="s">
         <v>103</v>
@@ -1867,8 +1875,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>111</v>
       </c>
     </row>

--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="164">
   <si>
     <t>学号（id）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,18 +81,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>入学年纪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stele</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>syear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宿舍号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,14 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sclass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级(不能直接calss,语言隐患)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sdorm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,63 +269,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>fheig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fweig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fjump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fwalk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fahead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被评价学号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所管年纪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>syear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sclass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这两个可以判断哪些学生是他的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fheig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fweig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fjump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fwalk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fahead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被评价学号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rtype</t>
+    <t>int(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcont</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varhar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终去向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sresult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tpasswd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spasswd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vachar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -349,7 +393,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rid</t>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>estime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eetimr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保研(清华大学) 工作(阿里巴巴) 考公(北京) 出国(美国) default在读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gresult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开课学年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("1","2","3","4")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("教师","同学","自己")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目:大学生成长"轨迹"管理与评价系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学生信息表student</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.身体健康记录fitness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.课程成绩grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.课程信息course</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.班主任teacher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.评价表review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.课外发展记录extra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联合主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体实施内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试学期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -357,294 +541,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>联合主键(重复测试修改指定值就好)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fyear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联合主键(或者使用自增主键,两者unique key)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个可以用来显示自己评价(搜索某人所有评价)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否补考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>greply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要不要绩点学分呢?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ttele</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("实践","项目","锻炼","社团","奖惩", "学习")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.班级表class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级年号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xyear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int(8)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评价内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rcont</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varhar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终去向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sresult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tpasswd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spasswd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>etype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ename</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vachar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>estime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eetimr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>("实践","项目","锻炼","社团")</t>
-  </si>
-  <si>
-    <t>保研(清华大学) 工作(阿里巴巴) 考公(北京) 出国(美国) default在读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个破数据库设计了2小时mdzz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gresult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开课学年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cyear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>("1","2","3","4")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>("教师","同学","自己")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目:大学生成长"轨迹"管理与评价系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.学生信息表student</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.身体健康记录fitness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.课程成绩grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.课程信息course</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.班主任teacher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.评价表review</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.课外发展记录extra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联合主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评价日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体实施内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试学期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>联合主键(重复测试修改指定值就好)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fyear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联合主键(或者使用自增主键,两者unique key)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以使用unique key来限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评价人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个可以用来显示自己评价(搜索某人所有评价)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否补考</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>greply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认为false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要不要绩点学分呢?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tname</t>
+    <t>这个表用于联系老师和学生，用x是为了和course区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：这个表示后加的，但是在sql里面它在最开头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -970,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -989,15 +1018,15 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1043,7 +1072,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1057,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1065,13 +1094,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1082,10 +1111,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1093,27 +1122,33 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1121,13 +1156,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1135,13 +1170,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1149,13 +1184,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1163,13 +1198,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1177,13 +1212,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1191,104 +1226,104 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>110</v>
+      <c r="G15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>3</v>
+        <v>74</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
       <c r="G19" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="D20">
         <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1296,13 +1331,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1310,13 +1345,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1324,13 +1359,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1338,13 +1373,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1352,64 +1387,70 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s">
-        <v>3</v>
+        <v>112</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1418,38 +1459,32 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D31">
         <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1457,405 +1492,405 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" t="s">
-        <v>152</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="s">
-        <v>153</v>
+      <c r="G33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" t="s">
-        <v>3</v>
+        <v>111</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D37">
         <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="G38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>120</v>
       </c>
-      <c r="B39" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" t="s">
-        <v>149</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
-        <v>125</v>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>2</v>
-      </c>
-      <c r="F41" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" t="s">
-        <v>14</v>
+        <v>36</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43" t="s">
         <v>155</v>
       </c>
-      <c r="B43" t="s">
-        <v>156</v>
-      </c>
-      <c r="C43" t="s">
-        <v>8</v>
-      </c>
       <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="D44">
         <v>1</v>
-      </c>
-      <c r="G44" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="G45" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
         <v>133</v>
-      </c>
-      <c r="B48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
-        <v>2</v>
-      </c>
-      <c r="F48" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
       <c r="G50" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D51">
         <v>1</v>
-      </c>
-      <c r="G51" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>136</v>
-      </c>
-      <c r="B53" t="s">
-        <v>137</v>
-      </c>
-      <c r="C53" t="s">
-        <v>138</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1</v>
-      </c>
-      <c r="E56" t="s">
-        <v>2</v>
-      </c>
-      <c r="F56" t="s">
-        <v>3</v>
-      </c>
-      <c r="G56" t="s">
-        <v>14</v>
+        <v>61</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B57" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="F57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C58" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
-      <c r="F58">
-        <v>1</v>
+      <c r="G58" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C59" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D59">
         <v>1</v>
-      </c>
-      <c r="G59" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="B60" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -1863,35 +1898,95 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B61" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C61" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>105</v>
-      </c>
-      <c r="B62" t="s">
-        <v>107</v>
-      </c>
-      <c r="C62" t="s">
-        <v>103</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>111</v>
+        <v>149</v>
+      </c>
+      <c r="B64" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" t="s">
+        <v>155</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>150</v>
+      </c>
+      <c r="B66" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" t="s">
+        <v>157</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="176">
   <si>
     <t>学号（id）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -674,6 +674,54 @@
   </si>
   <si>
     <t>注：这个表示后加的，但是在sql里面它在最开头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.家长表parent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家长id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孩子学号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppasswd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -999,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1930,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="G63" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -1956,7 +2004,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>151</v>
       </c>
@@ -1970,7 +2018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>150</v>
       </c>
@@ -1984,9 +2032,100 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>165</v>
+      </c>
+      <c r="B70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" t="s">
+        <v>155</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>166</v>
+      </c>
+      <c r="B71" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71" t="s">
+        <v>155</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>170</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>171</v>
+      </c>
+      <c r="B72" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" t="s">
+        <v>85</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>173</v>
+      </c>
+      <c r="B73" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" t="s">
+        <v>175</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
